--- a/inputcons/Combined_Details.xlsx
+++ b/inputcons/Combined_Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>Année</t>
   </si>
@@ -95,6 +95,243 @@
   </si>
   <si>
     <t>SMOKE</t>
+  </si>
+  <si>
+    <t>52.3%</t>
+  </si>
+  <si>
+    <t>5.2%</t>
+  </si>
+  <si>
+    <t>62.6%</t>
+  </si>
+  <si>
+    <t>27.0%</t>
+  </si>
+  <si>
+    <t>31.8%</t>
+  </si>
+  <si>
+    <t>-10.5%</t>
+  </si>
+  <si>
+    <t>42.7%</t>
+  </si>
+  <si>
+    <t>5.0%</t>
+  </si>
+  <si>
+    <t>62.0%</t>
+  </si>
+  <si>
+    <t>65.6%</t>
+  </si>
+  <si>
+    <t>10.8%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>59.5%</t>
+  </si>
+  <si>
+    <t>3.7%</t>
+  </si>
+  <si>
+    <t>53.0%</t>
+  </si>
+  <si>
+    <t>43.7%</t>
+  </si>
+  <si>
+    <t>17.7%</t>
+  </si>
+  <si>
+    <t>69.8%</t>
+  </si>
+  <si>
+    <t>64.7%</t>
+  </si>
+  <si>
+    <t>31.3%</t>
+  </si>
+  <si>
+    <t>76.5%</t>
+  </si>
+  <si>
+    <t>42.4%</t>
+  </si>
+  <si>
+    <t>63.5%</t>
+  </si>
+  <si>
+    <t>18.6%</t>
+  </si>
+  <si>
+    <t>64.0%</t>
+  </si>
+  <si>
+    <t>42.3%</t>
+  </si>
+  <si>
+    <t>56.1%</t>
+  </si>
+  <si>
+    <t>51.1%</t>
+  </si>
+  <si>
+    <t>64.9%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>27.5%</t>
+  </si>
+  <si>
+    <t>58.2%</t>
+  </si>
+  <si>
+    <t>15.4%</t>
+  </si>
+  <si>
+    <t>28.9%</t>
+  </si>
+  <si>
+    <t>63.7%</t>
+  </si>
+  <si>
+    <t>16.3%</t>
+  </si>
+  <si>
+    <t>50.4%</t>
+  </si>
+  <si>
+    <t>54.4%</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
+    <t>45.7%</t>
+  </si>
+  <si>
+    <t>11.8%</t>
+  </si>
+  <si>
+    <t>5.3%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>9.0%</t>
+  </si>
+  <si>
+    <t>25.9%</t>
+  </si>
+  <si>
+    <t>6.2%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>6.9%</t>
+  </si>
+  <si>
+    <t>30.9%</t>
+  </si>
+  <si>
+    <t>25.0%</t>
+  </si>
+  <si>
+    <t>11.6%</t>
+  </si>
+  <si>
+    <t>32.7%</t>
+  </si>
+  <si>
+    <t>30.7%</t>
+  </si>
+  <si>
+    <t>5.9%</t>
+  </si>
+  <si>
+    <t>27.9%</t>
+  </si>
+  <si>
+    <t>14.8%</t>
+  </si>
+  <si>
+    <t>23.0%</t>
+  </si>
+  <si>
+    <t>11.7%</t>
+  </si>
+  <si>
+    <t>57.6%</t>
+  </si>
+  <si>
+    <t>36.5%</t>
+  </si>
+  <si>
+    <t>81.4%</t>
+  </si>
+  <si>
+    <t>36.0%</t>
+  </si>
+  <si>
+    <t>57.7%</t>
+  </si>
+  <si>
+    <t>43.9%</t>
+  </si>
+  <si>
+    <t>48.9%</t>
+  </si>
+  <si>
+    <t>35.1%</t>
+  </si>
+  <si>
+    <t>80.0%</t>
+  </si>
+  <si>
+    <t>72.5%</t>
+  </si>
+  <si>
+    <t>41.8%</t>
+  </si>
+  <si>
+    <t>84.6%</t>
+  </si>
+  <si>
+    <t>71.1%</t>
+  </si>
+  <si>
+    <t>36.3%</t>
+  </si>
+  <si>
+    <t>83.7%</t>
+  </si>
+  <si>
+    <t>49.6%</t>
+  </si>
+  <si>
+    <t>45.6%</t>
+  </si>
+  <si>
+    <t>68.4%</t>
+  </si>
+  <si>
+    <t>54.3%</t>
+  </si>
+  <si>
+    <t>88.2%</t>
   </si>
 </sst>
 </file>
@@ -551,17 +788,17 @@
       <c r="M2">
         <v>17087510</v>
       </c>
-      <c r="N2">
-        <v>0.5</v>
-      </c>
-      <c r="O2">
-        <v>0.4</v>
-      </c>
-      <c r="P2">
-        <v>0.1</v>
-      </c>
-      <c r="Q2">
-        <v>0.6</v>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -604,17 +841,17 @@
       <c r="M3">
         <v>284960</v>
       </c>
-      <c r="N3">
-        <v>0.1</v>
-      </c>
-      <c r="O3">
-        <v>0.6</v>
-      </c>
-      <c r="P3">
-        <v>0.3</v>
-      </c>
-      <c r="Q3">
-        <v>0.4</v>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -657,17 +894,17 @@
       <c r="M4">
         <v>2879930</v>
       </c>
-      <c r="N4">
-        <v>0.6</v>
-      </c>
-      <c r="O4">
-        <v>0.2</v>
-      </c>
-      <c r="P4">
-        <v>0.2</v>
-      </c>
-      <c r="Q4">
-        <v>0.8</v>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -710,17 +947,17 @@
       <c r="M5">
         <v>964040</v>
       </c>
-      <c r="N5">
-        <v>0.3</v>
-      </c>
-      <c r="O5">
-        <v>0.6</v>
-      </c>
-      <c r="P5">
-        <v>0.1</v>
-      </c>
-      <c r="Q5">
-        <v>0.4</v>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -763,17 +1000,17 @@
       <c r="M6">
         <v>395710</v>
       </c>
-      <c r="N6">
-        <v>0.3</v>
-      </c>
-      <c r="O6">
-        <v>0.4</v>
-      </c>
-      <c r="P6">
-        <v>0.3</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -816,17 +1053,17 @@
       <c r="M7">
         <v>-31200</v>
       </c>
-      <c r="N7">
-        <v>-0.1</v>
-      </c>
-      <c r="O7">
-        <v>0.6</v>
-      </c>
-      <c r="P7">
-        <v>0.5</v>
-      </c>
-      <c r="Q7">
-        <v>0.4</v>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -869,17 +1106,17 @@
       <c r="M8">
         <v>9743210</v>
       </c>
-      <c r="N8">
-        <v>0.4</v>
-      </c>
-      <c r="O8">
-        <v>0.5</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.5</v>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -922,17 +1159,17 @@
       <c r="M9">
         <v>236685</v>
       </c>
-      <c r="N9">
-        <v>0.1</v>
-      </c>
-      <c r="O9">
-        <v>0.6</v>
-      </c>
-      <c r="P9">
-        <v>0.3</v>
-      </c>
-      <c r="Q9">
-        <v>0.4</v>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -975,17 +1212,17 @@
       <c r="M10">
         <v>2425255</v>
       </c>
-      <c r="N10">
-        <v>0.6</v>
-      </c>
-      <c r="O10">
-        <v>0.2</v>
-      </c>
-      <c r="P10">
-        <v>0.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.8</v>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1028,17 +1265,17 @@
       <c r="M11">
         <v>12905690</v>
       </c>
-      <c r="N11">
-        <v>0.7</v>
-      </c>
-      <c r="O11">
-        <v>0.3</v>
-      </c>
-      <c r="P11">
-        <v>0.1</v>
-      </c>
-      <c r="Q11">
-        <v>0.7</v>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1081,17 +1318,17 @@
       <c r="M12">
         <v>473090</v>
       </c>
-      <c r="N12">
-        <v>0.1</v>
-      </c>
-      <c r="O12">
-        <v>0.6</v>
-      </c>
-      <c r="P12">
-        <v>0.3</v>
-      </c>
-      <c r="Q12">
-        <v>0.4</v>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1134,17 +1371,17 @@
       <c r="M13">
         <v>1610520</v>
       </c>
-      <c r="N13">
-        <v>0.6</v>
-      </c>
-      <c r="O13">
-        <v>0.2</v>
-      </c>
-      <c r="P13">
-        <v>0.2</v>
-      </c>
-      <c r="Q13">
-        <v>0.8</v>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1187,17 +1424,17 @@
       <c r="M14">
         <v>6208661.096</v>
       </c>
-      <c r="N14">
-        <v>0.6</v>
-      </c>
-      <c r="O14">
-        <v>0.3</v>
-      </c>
-      <c r="P14">
-        <v>0.1</v>
-      </c>
-      <c r="Q14">
-        <v>0.7</v>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1240,17 +1477,17 @@
       <c r="M15">
         <v>137111.0959999999</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0.6</v>
-      </c>
-      <c r="P15">
-        <v>0.3</v>
-      </c>
-      <c r="Q15">
-        <v>0.4</v>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1293,17 +1530,17 @@
       <c r="M16">
         <v>1048955.548</v>
       </c>
-      <c r="N16">
-        <v>0.5</v>
-      </c>
-      <c r="O16">
-        <v>0.2</v>
-      </c>
-      <c r="P16">
-        <v>0.3</v>
-      </c>
-      <c r="Q16">
-        <v>0.8</v>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1346,17 +1583,17 @@
       <c r="M17">
         <v>12336710</v>
       </c>
-      <c r="N17">
-        <v>0.4</v>
-      </c>
-      <c r="O17">
-        <v>0.5</v>
-      </c>
-      <c r="P17">
-        <v>0.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.5</v>
+      <c r="N17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1399,17 +1636,17 @@
       <c r="M18">
         <v>1055110</v>
       </c>
-      <c r="N18">
-        <v>0.2</v>
-      </c>
-      <c r="O18">
-        <v>0.5</v>
-      </c>
-      <c r="P18">
-        <v>0.3</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1452,17 +1689,17 @@
       <c r="M19">
         <v>3927380</v>
       </c>
-      <c r="N19">
-        <v>0.7</v>
-      </c>
-      <c r="O19">
-        <v>0.2</v>
-      </c>
-      <c r="P19">
-        <v>0.1</v>
-      </c>
-      <c r="Q19">
-        <v>0.8</v>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1505,17 +1742,17 @@
       <c r="M20">
         <v>24121510</v>
       </c>
-      <c r="N20">
-        <v>0.6</v>
-      </c>
-      <c r="O20">
-        <v>0.3</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0.7</v>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1558,17 +1795,17 @@
       <c r="M21">
         <v>1885010</v>
       </c>
-      <c r="N21">
-        <v>0.3</v>
-      </c>
-      <c r="O21">
-        <v>0.5</v>
-      </c>
-      <c r="P21">
-        <v>0.2</v>
-      </c>
-      <c r="Q21">
-        <v>0.5</v>
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1611,17 +1848,17 @@
       <c r="M22">
         <v>4532380</v>
       </c>
-      <c r="N22">
-        <v>0.8</v>
-      </c>
-      <c r="O22">
-        <v>0.1</v>
-      </c>
-      <c r="P22">
-        <v>0.1</v>
-      </c>
-      <c r="Q22">
-        <v>0.9</v>
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/inputcons/Combined_Details.xlsx
+++ b/inputcons/Combined_Details.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
-  <si>
-    <t>Année</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="179">
+  <si>
+    <t>Années</t>
   </si>
   <si>
     <t>Mois</t>
@@ -73,6 +73,9 @@
     <t>Avril</t>
   </si>
   <si>
+    <t>Décembre</t>
+  </si>
+  <si>
     <t>Juillet</t>
   </si>
   <si>
@@ -82,12 +85,24 @@
     <t>Mai</t>
   </si>
   <si>
+    <t>Novembre</t>
+  </si>
+  <si>
     <t>Octobre</t>
   </si>
   <si>
     <t>Septembre</t>
   </si>
   <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
     <t>DRINK</t>
   </si>
   <si>
@@ -97,241 +112,445 @@
     <t>SMOKE</t>
   </si>
   <si>
-    <t>52.3%</t>
-  </si>
-  <si>
-    <t>5.2%</t>
+    <t>51.9%</t>
+  </si>
+  <si>
+    <t>6.7%</t>
+  </si>
+  <si>
+    <t>62.4%</t>
+  </si>
+  <si>
+    <t>18.2%</t>
+  </si>
+  <si>
+    <t>25.4%</t>
+  </si>
+  <si>
+    <t>-13.4%</t>
+  </si>
+  <si>
+    <t>47.6%</t>
+  </si>
+  <si>
+    <t>-0.3%</t>
+  </si>
+  <si>
+    <t>65.5%</t>
+  </si>
+  <si>
+    <t>40.1%</t>
+  </si>
+  <si>
+    <t>6.2%</t>
+  </si>
+  <si>
+    <t>60.6%</t>
+  </si>
+  <si>
+    <t>62.1%</t>
+  </si>
+  <si>
+    <t>13.0%</t>
+  </si>
+  <si>
+    <t>58.1%</t>
+  </si>
+  <si>
+    <t>56.8%</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>51.2%</t>
+  </si>
+  <si>
+    <t>43.1%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>65.9%</t>
+  </si>
+  <si>
+    <t>41.7%</t>
+  </si>
+  <si>
+    <t>18.0%</t>
+  </si>
+  <si>
+    <t>68.4%</t>
+  </si>
+  <si>
+    <t>60.7%</t>
+  </si>
+  <si>
+    <t>24.7%</t>
+  </si>
+  <si>
+    <t>72.3%</t>
+  </si>
+  <si>
+    <t>47.3%</t>
+  </si>
+  <si>
+    <t>-19.9%</t>
+  </si>
+  <si>
+    <t>72.4%</t>
+  </si>
+  <si>
+    <t>40.0%</t>
+  </si>
+  <si>
+    <t>-39.3%</t>
+  </si>
+  <si>
+    <t>63.3%</t>
+  </si>
+  <si>
+    <t>42.2%</t>
+  </si>
+  <si>
+    <t>-3.6%</t>
+  </si>
+  <si>
+    <t>66.8%</t>
+  </si>
+  <si>
+    <t>39.7%</t>
+  </si>
+  <si>
+    <t>-17.8%</t>
+  </si>
+  <si>
+    <t>67.9%</t>
+  </si>
+  <si>
+    <t>42.3%</t>
+  </si>
+  <si>
+    <t>60.4%</t>
+  </si>
+  <si>
+    <t>17.8%</t>
+  </si>
+  <si>
+    <t>71.2%</t>
+  </si>
+  <si>
+    <t>45.4%</t>
+  </si>
+  <si>
+    <t>56.1%</t>
+  </si>
+  <si>
+    <t>44.6%</t>
+  </si>
+  <si>
+    <t>67.2%</t>
+  </si>
+  <si>
+    <t>15.2%</t>
+  </si>
+  <si>
+    <t>53.0%</t>
   </si>
   <si>
     <t>62.6%</t>
   </si>
   <si>
-    <t>27.0%</t>
-  </si>
-  <si>
-    <t>31.8%</t>
-  </si>
-  <si>
-    <t>-10.5%</t>
-  </si>
-  <si>
-    <t>42.7%</t>
-  </si>
-  <si>
-    <t>5.0%</t>
-  </si>
-  <si>
-    <t>62.0%</t>
-  </si>
-  <si>
-    <t>65.6%</t>
-  </si>
-  <si>
-    <t>10.8%</t>
-  </si>
-  <si>
-    <t>59.6%</t>
-  </si>
-  <si>
-    <t>59.5%</t>
-  </si>
-  <si>
-    <t>3.7%</t>
-  </si>
-  <si>
-    <t>53.0%</t>
-  </si>
-  <si>
-    <t>43.7%</t>
-  </si>
-  <si>
-    <t>17.7%</t>
-  </si>
-  <si>
-    <t>69.8%</t>
-  </si>
-  <si>
-    <t>64.7%</t>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>30.0%</t>
+  </si>
+  <si>
+    <t>55.6%</t>
+  </si>
+  <si>
+    <t>15.4%</t>
+  </si>
+  <si>
+    <t>30.3%</t>
+  </si>
+  <si>
+    <t>64.5%</t>
+  </si>
+  <si>
+    <t>16.3%</t>
+  </si>
+  <si>
+    <t>49.2%</t>
+  </si>
+  <si>
+    <t>63.1%</t>
+  </si>
+  <si>
+    <t>15.0%</t>
+  </si>
+  <si>
+    <t>51.7%</t>
+  </si>
+  <si>
+    <t>52.5%</t>
+  </si>
+  <si>
+    <t>34.8%</t>
+  </si>
+  <si>
+    <t>48.8%</t>
+  </si>
+  <si>
+    <t>13.4%</t>
+  </si>
+  <si>
+    <t>45.9%</t>
+  </si>
+  <si>
+    <t>88.5%</t>
+  </si>
+  <si>
+    <t>14.9%</t>
+  </si>
+  <si>
+    <t>49.8%</t>
+  </si>
+  <si>
+    <t>85.5%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>50.6%</t>
+  </si>
+  <si>
+    <t>14.7%</t>
+  </si>
+  <si>
+    <t>52.7%</t>
+  </si>
+  <si>
+    <t>79.5%</t>
+  </si>
+  <si>
+    <t>16.1%</t>
+  </si>
+  <si>
+    <t>5.8%</t>
+  </si>
+  <si>
+    <t>32.8%</t>
+  </si>
+  <si>
+    <t>19.8%</t>
+  </si>
+  <si>
+    <t>10.6%</t>
+  </si>
+  <si>
+    <t>29.2%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>7.8%</t>
+  </si>
+  <si>
+    <t>33.1%</t>
+  </si>
+  <si>
+    <t>19.3%</t>
+  </si>
+  <si>
+    <t>6.9%</t>
+  </si>
+  <si>
+    <t>31.2%</t>
+  </si>
+  <si>
+    <t>19.4%</t>
+  </si>
+  <si>
+    <t>7.9%</t>
   </si>
   <si>
     <t>31.3%</t>
   </si>
   <si>
-    <t>76.5%</t>
-  </si>
-  <si>
-    <t>42.4%</t>
-  </si>
-  <si>
-    <t>63.5%</t>
-  </si>
-  <si>
-    <t>18.6%</t>
-  </si>
-  <si>
-    <t>64.0%</t>
-  </si>
-  <si>
-    <t>42.3%</t>
-  </si>
-  <si>
-    <t>56.1%</t>
-  </si>
-  <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>64.9%</t>
-  </si>
-  <si>
-    <t>20.0%</t>
-  </si>
-  <si>
-    <t>27.5%</t>
-  </si>
-  <si>
-    <t>58.2%</t>
-  </si>
-  <si>
-    <t>15.4%</t>
-  </si>
-  <si>
-    <t>28.9%</t>
-  </si>
-  <si>
-    <t>63.7%</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>50.4%</t>
-  </si>
-  <si>
-    <t>54.4%</t>
-  </si>
-  <si>
-    <t>31.6%</t>
-  </si>
-  <si>
-    <t>45.7%</t>
-  </si>
-  <si>
-    <t>11.8%</t>
-  </si>
-  <si>
-    <t>5.3%</t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t>9.0%</t>
-  </si>
-  <si>
-    <t>25.9%</t>
-  </si>
-  <si>
-    <t>6.2%</t>
-  </si>
-  <si>
-    <t>30.0%</t>
-  </si>
-  <si>
-    <t>18.0%</t>
-  </si>
-  <si>
-    <t>6.9%</t>
-  </si>
-  <si>
-    <t>30.9%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
-  </si>
-  <si>
-    <t>11.6%</t>
-  </si>
-  <si>
-    <t>32.7%</t>
-  </si>
-  <si>
-    <t>30.7%</t>
-  </si>
-  <si>
-    <t>5.9%</t>
-  </si>
-  <si>
-    <t>27.9%</t>
-  </si>
-  <si>
-    <t>14.8%</t>
-  </si>
-  <si>
-    <t>23.0%</t>
-  </si>
-  <si>
-    <t>11.7%</t>
-  </si>
-  <si>
-    <t>57.6%</t>
-  </si>
-  <si>
-    <t>36.5%</t>
-  </si>
-  <si>
-    <t>81.4%</t>
-  </si>
-  <si>
-    <t>36.0%</t>
+    <t>26.5%</t>
+  </si>
+  <si>
+    <t>12.9%</t>
+  </si>
+  <si>
+    <t>35.1%</t>
+  </si>
+  <si>
+    <t>32.5%</t>
+  </si>
+  <si>
+    <t>35.7%</t>
+  </si>
+  <si>
+    <t>19.1%</t>
+  </si>
+  <si>
+    <t>6.6%</t>
+  </si>
+  <si>
+    <t>29.5%</t>
+  </si>
+  <si>
+    <t>16.2%</t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>14.3%</t>
+  </si>
+  <si>
+    <t>6.8%</t>
+  </si>
+  <si>
+    <t>31.4%</t>
+  </si>
+  <si>
+    <t>12.7%</t>
+  </si>
+  <si>
+    <t>10.1%</t>
+  </si>
+  <si>
+    <t>53.8%</t>
+  </si>
+  <si>
+    <t>22.1%</t>
+  </si>
+  <si>
+    <t>7.1%</t>
+  </si>
+  <si>
+    <t>18.5%</t>
+  </si>
+  <si>
+    <t>7.6%</t>
+  </si>
+  <si>
+    <t>38.3%</t>
+  </si>
+  <si>
+    <t>16.0%</t>
   </si>
   <si>
     <t>57.7%</t>
   </si>
   <si>
+    <t>39.6%</t>
+  </si>
+  <si>
+    <t>82.2%</t>
+  </si>
+  <si>
+    <t>28.8%</t>
+  </si>
+  <si>
+    <t>54.6%</t>
+  </si>
+  <si>
     <t>43.9%</t>
   </si>
   <si>
-    <t>48.9%</t>
-  </si>
-  <si>
-    <t>35.1%</t>
+    <t>55.4%</t>
+  </si>
+  <si>
+    <t>84.8%</t>
+  </si>
+  <si>
+    <t>47.0%</t>
+  </si>
+  <si>
+    <t>37.4%</t>
   </si>
   <si>
     <t>80.0%</t>
   </si>
   <si>
-    <t>72.5%</t>
-  </si>
-  <si>
-    <t>41.8%</t>
+    <t>70.0%</t>
+  </si>
+  <si>
+    <t>44.4%</t>
   </si>
   <si>
     <t>84.6%</t>
   </si>
   <si>
-    <t>71.1%</t>
-  </si>
-  <si>
-    <t>36.3%</t>
+    <t>69.7%</t>
+  </si>
+  <si>
+    <t>35.5%</t>
   </si>
   <si>
     <t>83.7%</t>
   </si>
   <si>
-    <t>49.6%</t>
-  </si>
-  <si>
-    <t>45.6%</t>
-  </si>
-  <si>
-    <t>68.4%</t>
-  </si>
-  <si>
-    <t>54.3%</t>
-  </si>
-  <si>
-    <t>88.2%</t>
+    <t>50.8%</t>
+  </si>
+  <si>
+    <t>36.9%</t>
+  </si>
+  <si>
+    <t>85.0%</t>
+  </si>
+  <si>
+    <t>48.3%</t>
+  </si>
+  <si>
+    <t>47.5%</t>
+  </si>
+  <si>
+    <t>65.2%</t>
+  </si>
+  <si>
+    <t>86.6%</t>
+  </si>
+  <si>
+    <t>54.1%</t>
+  </si>
+  <si>
+    <t>11.5%</t>
+  </si>
+  <si>
+    <t>85.1%</t>
+  </si>
+  <si>
+    <t>50.2%</t>
+  </si>
+  <si>
+    <t>14.5%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>49.4%</t>
+  </si>
+  <si>
+    <t>32.1%</t>
+  </si>
+  <si>
+    <t>85.3%</t>
+  </si>
+  <si>
+    <t>20.5%</t>
+  </si>
+  <si>
+    <t>83.9%</t>
   </si>
 </sst>
 </file>
@@ -689,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>3200</v>
@@ -768,37 +987,37 @@
         <v>282000</v>
       </c>
       <c r="G2">
-        <v>392540</v>
+        <v>569820</v>
       </c>
       <c r="H2">
         <v>810400</v>
       </c>
       <c r="I2">
-        <v>1724140</v>
+        <v>1901420</v>
       </c>
       <c r="J2">
         <v>13871350</v>
       </c>
       <c r="K2">
-        <v>32683000</v>
+        <v>32790500</v>
       </c>
       <c r="L2">
-        <v>18811650</v>
+        <v>18919150</v>
       </c>
       <c r="M2">
-        <v>17087510</v>
+        <v>17017730</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -809,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>3200</v>
@@ -821,37 +1040,37 @@
         <v>282000</v>
       </c>
       <c r="G3">
-        <v>392540</v>
+        <v>569820</v>
       </c>
       <c r="H3">
         <v>810400</v>
       </c>
       <c r="I3">
-        <v>1724140</v>
+        <v>1901420</v>
       </c>
       <c r="J3">
         <v>3497400</v>
       </c>
       <c r="K3">
-        <v>5506500</v>
+        <v>5789500</v>
       </c>
       <c r="L3">
-        <v>2009100</v>
+        <v>2292100</v>
       </c>
       <c r="M3">
-        <v>284960</v>
+        <v>390680</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -862,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1600</v>
@@ -874,37 +1093,37 @@
         <v>141000</v>
       </c>
       <c r="G4">
-        <v>196270</v>
+        <v>284910</v>
       </c>
       <c r="H4">
         <v>405200</v>
       </c>
       <c r="I4">
-        <v>862070</v>
+        <v>950710</v>
       </c>
       <c r="J4">
         <v>855000</v>
       </c>
       <c r="K4">
-        <v>4597000</v>
+        <v>4801500</v>
       </c>
       <c r="L4">
-        <v>3742000</v>
+        <v>3946500</v>
       </c>
       <c r="M4">
-        <v>2879930</v>
+        <v>2995790</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,7 +1134,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>58040</v>
@@ -927,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36160</v>
+        <v>52800</v>
       </c>
       <c r="H5">
         <v>219800</v>
       </c>
       <c r="I5">
-        <v>322000</v>
+        <v>338640</v>
       </c>
       <c r="J5">
         <v>2281460</v>
       </c>
       <c r="K5">
-        <v>3567500</v>
+        <v>3203000</v>
       </c>
       <c r="L5">
-        <v>1286040</v>
+        <v>921540</v>
       </c>
       <c r="M5">
-        <v>964040</v>
+        <v>582900</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -968,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>58040</v>
@@ -980,37 +1199,37 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36160</v>
+        <v>52800</v>
       </c>
       <c r="H6">
         <v>219800</v>
       </c>
       <c r="I6">
-        <v>322000</v>
+        <v>338640</v>
       </c>
       <c r="J6">
         <v>525790</v>
       </c>
       <c r="K6">
-        <v>1243500</v>
+        <v>1158500</v>
       </c>
       <c r="L6">
-        <v>717710</v>
+        <v>632710</v>
       </c>
       <c r="M6">
-        <v>395710</v>
+        <v>294070</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,7 +1240,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>29020</v>
@@ -1033,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18080</v>
+        <v>26400</v>
       </c>
       <c r="H7">
         <v>109900</v>
       </c>
       <c r="I7">
-        <v>161000</v>
+        <v>169320</v>
       </c>
       <c r="J7">
         <v>166200</v>
@@ -1051,19 +1270,19 @@
         <v>129800</v>
       </c>
       <c r="M7">
-        <v>-31200</v>
+        <v>-39520</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="Q7" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1074,49 +1293,49 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>71040</v>
+        <v>13820</v>
       </c>
       <c r="E8">
-        <v>252000</v>
+        <v>132000</v>
       </c>
       <c r="F8">
-        <v>200000</v>
+        <v>240200</v>
       </c>
       <c r="G8">
-        <v>163650</v>
+        <v>593516</v>
       </c>
       <c r="H8">
-        <v>723800</v>
+        <v>1027600</v>
       </c>
       <c r="I8">
-        <v>1410490</v>
+        <v>2007136</v>
       </c>
       <c r="J8">
-        <v>11641050</v>
+        <v>11558450</v>
       </c>
       <c r="K8">
-        <v>22794750</v>
+        <v>25897000</v>
       </c>
       <c r="L8">
-        <v>11153700</v>
+        <v>14338550</v>
       </c>
       <c r="M8">
-        <v>9743210</v>
+        <v>12331414</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1127,49 +1346,49 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>71040</v>
+        <v>13820</v>
       </c>
       <c r="E9">
-        <v>252000</v>
+        <v>132000</v>
       </c>
       <c r="F9">
-        <v>200000</v>
+        <v>240200</v>
       </c>
       <c r="G9">
-        <v>163650</v>
+        <v>593516</v>
       </c>
       <c r="H9">
-        <v>723800</v>
+        <v>1027600</v>
       </c>
       <c r="I9">
-        <v>1410490</v>
+        <v>2007136</v>
       </c>
       <c r="J9">
-        <v>3047575</v>
+        <v>4082816</v>
       </c>
       <c r="K9">
-        <v>4694750</v>
+        <v>6073000</v>
       </c>
       <c r="L9">
-        <v>1647175</v>
+        <v>1990184</v>
       </c>
       <c r="M9">
-        <v>236685</v>
+        <v>-16952</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,49 +1399,49 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>35520</v>
+        <v>6910</v>
       </c>
       <c r="E10">
-        <v>126000</v>
+        <v>66000</v>
       </c>
       <c r="F10">
-        <v>100000</v>
+        <v>120100</v>
       </c>
       <c r="G10">
-        <v>81825</v>
+        <v>296758</v>
       </c>
       <c r="H10">
-        <v>361900</v>
+        <v>513800</v>
       </c>
       <c r="I10">
-        <v>705245</v>
+        <v>1003568</v>
       </c>
       <c r="J10">
-        <v>782000</v>
+        <v>790000</v>
       </c>
       <c r="K10">
-        <v>3912500</v>
+        <v>5201500</v>
       </c>
       <c r="L10">
-        <v>3130500</v>
+        <v>4411500</v>
       </c>
       <c r="M10">
-        <v>2425255</v>
+        <v>3407932</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,49 +1452,49 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>19320</v>
+        <v>71040</v>
       </c>
       <c r="E11">
-        <v>192000</v>
+        <v>252000</v>
       </c>
       <c r="F11">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="G11">
-        <v>224040</v>
+        <v>271090</v>
       </c>
       <c r="H11">
-        <v>694400</v>
+        <v>723800</v>
       </c>
       <c r="I11">
-        <v>1349760</v>
+        <v>1517930</v>
       </c>
       <c r="J11">
-        <v>5414050</v>
+        <v>11641050</v>
       </c>
       <c r="K11">
-        <v>19669500</v>
+        <v>21952500</v>
       </c>
       <c r="L11">
-        <v>14255450</v>
+        <v>10311450</v>
       </c>
       <c r="M11">
-        <v>12905690</v>
+        <v>8793520</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1286,49 +1505,49 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>19320</v>
+        <v>71040</v>
       </c>
       <c r="E12">
-        <v>192000</v>
+        <v>252000</v>
       </c>
       <c r="F12">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="G12">
-        <v>224040</v>
+        <v>271090</v>
       </c>
       <c r="H12">
-        <v>694400</v>
+        <v>723800</v>
       </c>
       <c r="I12">
-        <v>1349760</v>
+        <v>1517930</v>
       </c>
       <c r="J12">
-        <v>2538900</v>
+        <v>3047575</v>
       </c>
       <c r="K12">
-        <v>4361750</v>
+        <v>4868000</v>
       </c>
       <c r="L12">
-        <v>1822850</v>
+        <v>1820425</v>
       </c>
       <c r="M12">
-        <v>473090</v>
+        <v>302495</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="Q12" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1339,49 +1558,49 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>9660</v>
+        <v>35520</v>
       </c>
       <c r="E13">
-        <v>96000</v>
+        <v>126000</v>
       </c>
       <c r="F13">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="G13">
-        <v>112020</v>
+        <v>135545</v>
       </c>
       <c r="H13">
-        <v>347200</v>
+        <v>361900</v>
       </c>
       <c r="I13">
-        <v>674880</v>
+        <v>758965</v>
       </c>
       <c r="J13">
-        <v>417600</v>
+        <v>782000</v>
       </c>
       <c r="K13">
-        <v>2703000</v>
+        <v>3912500</v>
       </c>
       <c r="L13">
-        <v>2285400</v>
+        <v>3130500</v>
       </c>
       <c r="M13">
-        <v>1610520</v>
+        <v>2371535</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,49 +1611,49 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>91080</v>
+        <v>19320</v>
       </c>
       <c r="E14">
-        <v>134000</v>
+        <v>192000</v>
       </c>
       <c r="F14">
-        <v>188000</v>
+        <v>220000</v>
       </c>
       <c r="G14">
-        <v>242408.904</v>
+        <v>304400</v>
       </c>
       <c r="H14">
-        <v>559600</v>
+        <v>694400</v>
       </c>
       <c r="I14">
-        <v>1215088.904</v>
+        <v>1430120</v>
       </c>
       <c r="J14">
-        <v>3018750</v>
+        <v>5414050</v>
       </c>
       <c r="K14">
-        <v>10442500</v>
+        <v>18057500</v>
       </c>
       <c r="L14">
-        <v>7423750</v>
+        <v>12643450</v>
       </c>
       <c r="M14">
-        <v>6208661.096</v>
+        <v>11213330</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="Q14" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1445,49 +1664,49 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>91080</v>
+        <v>19320</v>
       </c>
       <c r="E15">
-        <v>134000</v>
+        <v>192000</v>
       </c>
       <c r="F15">
-        <v>188000</v>
+        <v>220000</v>
       </c>
       <c r="G15">
-        <v>242408.904</v>
+        <v>304400</v>
       </c>
       <c r="H15">
-        <v>559600</v>
+        <v>694400</v>
       </c>
       <c r="I15">
-        <v>1215088.904</v>
+        <v>1430120</v>
       </c>
       <c r="J15">
-        <v>2368050</v>
+        <v>2538900</v>
       </c>
       <c r="K15">
-        <v>3720250</v>
+        <v>4562750</v>
       </c>
       <c r="L15">
-        <v>1352200</v>
+        <v>2023850</v>
       </c>
       <c r="M15">
-        <v>137111.0959999999</v>
+        <v>593730</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,49 +1717,49 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>45540</v>
+        <v>9660</v>
       </c>
       <c r="E16">
-        <v>67000</v>
+        <v>96000</v>
       </c>
       <c r="F16">
-        <v>94000</v>
+        <v>110000</v>
       </c>
       <c r="G16">
-        <v>121204.452</v>
+        <v>152200</v>
       </c>
       <c r="H16">
-        <v>279800</v>
+        <v>347200</v>
       </c>
       <c r="I16">
-        <v>607544.452</v>
+        <v>715060</v>
       </c>
       <c r="J16">
-        <v>322000</v>
+        <v>417600</v>
       </c>
       <c r="K16">
-        <v>1978500</v>
+        <v>2703000</v>
       </c>
       <c r="L16">
-        <v>1656500</v>
+        <v>2285400</v>
       </c>
       <c r="M16">
-        <v>1048955.548</v>
+        <v>1570340</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="Q16" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1551,49 +1770,49 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>2360</v>
+        <v>91080</v>
       </c>
       <c r="E17">
-        <v>164000</v>
+        <v>134000</v>
       </c>
       <c r="F17">
-        <v>350000</v>
+        <v>188000</v>
       </c>
       <c r="G17">
-        <v>369680</v>
+        <v>314908.904</v>
       </c>
       <c r="H17">
-        <v>781200</v>
+        <v>559600</v>
       </c>
       <c r="I17">
-        <v>1667240</v>
+        <v>1287588.904</v>
       </c>
       <c r="J17">
-        <v>14205300</v>
+        <v>3018750</v>
       </c>
       <c r="K17">
-        <v>28209250</v>
+        <v>9957500</v>
       </c>
       <c r="L17">
-        <v>14003950</v>
+        <v>6938750</v>
       </c>
       <c r="M17">
-        <v>12336710</v>
+        <v>5651161.096</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="Q17" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1604,49 +1823,49 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>2360</v>
+        <v>91080</v>
       </c>
       <c r="E18">
-        <v>164000</v>
+        <v>134000</v>
       </c>
       <c r="F18">
-        <v>350000</v>
+        <v>188000</v>
       </c>
       <c r="G18">
-        <v>369680</v>
+        <v>314908.904</v>
       </c>
       <c r="H18">
-        <v>781200</v>
+        <v>559600</v>
       </c>
       <c r="I18">
-        <v>1667240</v>
+        <v>1287588.904</v>
       </c>
       <c r="J18">
-        <v>3242900</v>
+        <v>2368050</v>
       </c>
       <c r="K18">
-        <v>5965250</v>
+        <v>3669250</v>
       </c>
       <c r="L18">
-        <v>2722350</v>
+        <v>1301200</v>
       </c>
       <c r="M18">
-        <v>1055110</v>
+        <v>13611.0959999999</v>
       </c>
       <c r="N18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="Q18" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1657,49 +1876,49 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>1180</v>
+        <v>45540</v>
       </c>
       <c r="E19">
-        <v>82000</v>
+        <v>67000</v>
       </c>
       <c r="F19">
-        <v>175000</v>
+        <v>94000</v>
       </c>
       <c r="G19">
-        <v>184840</v>
+        <v>157454.452</v>
       </c>
       <c r="H19">
-        <v>390600</v>
+        <v>279800</v>
       </c>
       <c r="I19">
-        <v>833620</v>
+        <v>643794.452</v>
       </c>
       <c r="J19">
-        <v>867500</v>
+        <v>322000</v>
       </c>
       <c r="K19">
-        <v>5628500</v>
+        <v>1978500</v>
       </c>
       <c r="L19">
-        <v>4761000</v>
+        <v>1656500</v>
       </c>
       <c r="M19">
-        <v>3927380</v>
+        <v>1012705.548</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1710,49 +1929,49 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>41600</v>
+        <v>89920</v>
       </c>
       <c r="E20">
-        <v>262000</v>
+        <v>222000</v>
       </c>
       <c r="F20">
-        <v>120200</v>
+        <v>240000</v>
       </c>
       <c r="G20">
-        <v>207440</v>
+        <v>626120</v>
       </c>
       <c r="H20">
-        <v>755000</v>
+        <v>842800</v>
       </c>
       <c r="I20">
-        <v>1386240</v>
+        <v>2020840</v>
       </c>
       <c r="J20">
-        <v>11768250</v>
+        <v>12786850</v>
       </c>
       <c r="K20">
-        <v>37276000</v>
+        <v>26009500</v>
       </c>
       <c r="L20">
-        <v>25507750</v>
+        <v>13222650</v>
       </c>
       <c r="M20">
-        <v>24121510</v>
+        <v>11201810</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="Q20" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1763,49 +1982,49 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>41600</v>
+        <v>89920</v>
       </c>
       <c r="E21">
-        <v>262000</v>
+        <v>222000</v>
       </c>
       <c r="F21">
-        <v>120200</v>
+        <v>240000</v>
       </c>
       <c r="G21">
-        <v>207440</v>
+        <v>626120</v>
       </c>
       <c r="H21">
-        <v>755000</v>
+        <v>842800</v>
       </c>
       <c r="I21">
-        <v>1386240</v>
+        <v>2020840</v>
       </c>
       <c r="J21">
-        <v>2752000</v>
+        <v>3574570</v>
       </c>
       <c r="K21">
-        <v>6023250</v>
+        <v>5663000</v>
       </c>
       <c r="L21">
-        <v>3271250</v>
+        <v>2088430</v>
       </c>
       <c r="M21">
-        <v>1885010</v>
+        <v>67590</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="Q21" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1816,49 +2035,1003 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>44960</v>
+      </c>
+      <c r="E22">
+        <v>111000</v>
+      </c>
+      <c r="F22">
+        <v>120000</v>
+      </c>
+      <c r="G22">
+        <v>313060</v>
+      </c>
+      <c r="H22">
+        <v>421400</v>
+      </c>
+      <c r="I22">
+        <v>1010420</v>
+      </c>
+      <c r="J22">
+        <v>791000</v>
+      </c>
+      <c r="K22">
+        <v>5284500</v>
+      </c>
+      <c r="L22">
+        <v>4493500</v>
+      </c>
+      <c r="M22">
+        <v>3483080</v>
+      </c>
+      <c r="N22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>2360</v>
+      </c>
+      <c r="E23">
+        <v>164000</v>
+      </c>
+      <c r="F23">
+        <v>350000</v>
+      </c>
+      <c r="G23">
+        <v>522720</v>
+      </c>
+      <c r="H23">
+        <v>781200</v>
+      </c>
+      <c r="I23">
+        <v>1820280</v>
+      </c>
+      <c r="J23">
+        <v>14205300</v>
+      </c>
+      <c r="K23">
+        <v>27500500</v>
+      </c>
+      <c r="L23">
+        <v>13295200</v>
+      </c>
+      <c r="M23">
+        <v>11474920</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>2023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>2360</v>
+      </c>
+      <c r="E24">
+        <v>164000</v>
+      </c>
+      <c r="F24">
+        <v>350000</v>
+      </c>
+      <c r="G24">
+        <v>522720</v>
+      </c>
+      <c r="H24">
+        <v>781200</v>
+      </c>
+      <c r="I24">
+        <v>1820280</v>
+      </c>
+      <c r="J24">
+        <v>3242900</v>
+      </c>
+      <c r="K24">
+        <v>6174000</v>
+      </c>
+      <c r="L24">
+        <v>2931100</v>
+      </c>
+      <c r="M24">
+        <v>1110820</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>1180</v>
+      </c>
+      <c r="E25">
+        <v>82000</v>
+      </c>
+      <c r="F25">
+        <v>175000</v>
+      </c>
+      <c r="G25">
+        <v>261360</v>
+      </c>
+      <c r="H25">
+        <v>390600</v>
+      </c>
+      <c r="I25">
+        <v>910140</v>
+      </c>
+      <c r="J25">
+        <v>867500</v>
+      </c>
+      <c r="K25">
+        <v>5628500</v>
+      </c>
+      <c r="L25">
+        <v>4761000</v>
+      </c>
+      <c r="M25">
+        <v>3850860</v>
+      </c>
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>41600</v>
+      </c>
+      <c r="E26">
+        <v>262000</v>
+      </c>
+      <c r="F26">
+        <v>120200</v>
+      </c>
+      <c r="G26">
+        <v>315680</v>
+      </c>
+      <c r="H26">
+        <v>755000</v>
+      </c>
+      <c r="I26">
+        <v>1494480</v>
+      </c>
+      <c r="J26">
+        <v>11768250</v>
+      </c>
+      <c r="K26">
+        <v>33778000</v>
+      </c>
+      <c r="L26">
+        <v>22009750</v>
+      </c>
+      <c r="M26">
+        <v>20515270</v>
+      </c>
+      <c r="N26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>41600</v>
+      </c>
+      <c r="E27">
+        <v>262000</v>
+      </c>
+      <c r="F27">
+        <v>120200</v>
+      </c>
+      <c r="G27">
+        <v>315680</v>
+      </c>
+      <c r="H27">
+        <v>755000</v>
+      </c>
+      <c r="I27">
+        <v>1494480</v>
+      </c>
+      <c r="J27">
+        <v>2752000</v>
+      </c>
+      <c r="K27">
+        <v>5641750</v>
+      </c>
+      <c r="L27">
+        <v>2889750</v>
+      </c>
+      <c r="M27">
+        <v>1395270</v>
+      </c>
+      <c r="N27" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>20800</v>
+      </c>
+      <c r="E28">
+        <v>131000</v>
+      </c>
+      <c r="F28">
+        <v>60100</v>
+      </c>
+      <c r="G28">
+        <v>157840</v>
+      </c>
+      <c r="H28">
+        <v>377500</v>
+      </c>
+      <c r="I28">
+        <v>747240</v>
+      </c>
+      <c r="J28">
+        <v>697500</v>
+      </c>
+      <c r="K28">
+        <v>5217000</v>
+      </c>
+      <c r="L28">
+        <v>4519500</v>
+      </c>
+      <c r="M28">
+        <v>3772260</v>
+      </c>
+      <c r="N28" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>400</v>
+      </c>
+      <c r="E29">
+        <v>156000</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>165080</v>
+      </c>
+      <c r="H29">
+        <v>733600</v>
+      </c>
+      <c r="I29">
+        <v>1055080</v>
+      </c>
+      <c r="J29">
+        <v>7169850</v>
+      </c>
+      <c r="K29">
+        <v>15607500</v>
+      </c>
+      <c r="L29">
+        <v>8437650</v>
+      </c>
+      <c r="M29">
+        <v>7382570</v>
+      </c>
+      <c r="N29" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>400</v>
+      </c>
+      <c r="E30">
+        <v>156000</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>165080</v>
+      </c>
+      <c r="H30">
+        <v>733600</v>
+      </c>
+      <c r="I30">
+        <v>1055080</v>
+      </c>
+      <c r="J30">
+        <v>2979225</v>
+      </c>
+      <c r="K30">
+        <v>3365000</v>
+      </c>
+      <c r="L30">
+        <v>385775</v>
+      </c>
+      <c r="M30">
+        <v>-669305</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>78000</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>82540</v>
+      </c>
+      <c r="H31">
+        <v>366800</v>
+      </c>
+      <c r="I31">
+        <v>527540</v>
+      </c>
+      <c r="J31">
+        <v>620000</v>
+      </c>
+      <c r="K31">
+        <v>4155500</v>
+      </c>
+      <c r="L31">
+        <v>3535500</v>
+      </c>
+      <c r="M31">
+        <v>3007960</v>
+      </c>
+      <c r="N31" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="D22">
-        <v>20800</v>
-      </c>
-      <c r="E22">
-        <v>131000</v>
-      </c>
-      <c r="F22">
-        <v>60100</v>
-      </c>
-      <c r="G22">
-        <v>103720</v>
-      </c>
-      <c r="H22">
-        <v>377500</v>
-      </c>
-      <c r="I22">
-        <v>693120</v>
-      </c>
-      <c r="J22">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>14280</v>
+      </c>
+      <c r="E32">
+        <v>220000</v>
+      </c>
+      <c r="F32">
+        <v>300000</v>
+      </c>
+      <c r="G32">
+        <v>725060</v>
+      </c>
+      <c r="H32">
+        <v>845200</v>
+      </c>
+      <c r="I32">
+        <v>2104540</v>
+      </c>
+      <c r="J32">
+        <v>10338450</v>
+      </c>
+      <c r="K32">
+        <v>20741000</v>
+      </c>
+      <c r="L32">
+        <v>10402550</v>
+      </c>
+      <c r="M32">
+        <v>8298010</v>
+      </c>
+      <c r="N32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32" t="s">
+        <v>100</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>14280</v>
+      </c>
+      <c r="E33">
+        <v>220000</v>
+      </c>
+      <c r="F33">
+        <v>300000</v>
+      </c>
+      <c r="G33">
+        <v>725060</v>
+      </c>
+      <c r="H33">
+        <v>845200</v>
+      </c>
+      <c r="I33">
+        <v>2104540</v>
+      </c>
+      <c r="J33">
+        <v>3345510</v>
+      </c>
+      <c r="K33">
+        <v>3913500</v>
+      </c>
+      <c r="L33">
+        <v>567990</v>
+      </c>
+      <c r="M33">
+        <v>-1536550</v>
+      </c>
+      <c r="N33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>7140</v>
+      </c>
+      <c r="E34">
+        <v>110000</v>
+      </c>
+      <c r="F34">
+        <v>150000</v>
+      </c>
+      <c r="G34">
+        <v>362530</v>
+      </c>
+      <c r="H34">
+        <v>422600</v>
+      </c>
+      <c r="I34">
+        <v>1052270</v>
+      </c>
+      <c r="J34">
         <v>697500</v>
       </c>
-      <c r="K22">
-        <v>5923000</v>
-      </c>
-      <c r="L22">
-        <v>5225500</v>
-      </c>
-      <c r="M22">
-        <v>4532380</v>
-      </c>
-      <c r="N22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="K34">
+        <v>4764500</v>
+      </c>
+      <c r="L34">
+        <v>4067000</v>
+      </c>
+      <c r="M34">
+        <v>3014730</v>
+      </c>
+      <c r="N34" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>97680</v>
+      </c>
+      <c r="E35">
+        <v>178000</v>
+      </c>
+      <c r="F35">
+        <v>300000</v>
+      </c>
+      <c r="G35">
+        <v>481420</v>
+      </c>
+      <c r="H35">
+        <v>892200</v>
+      </c>
+      <c r="I35">
+        <v>1949300</v>
+      </c>
+      <c r="J35">
+        <v>13837500</v>
+      </c>
+      <c r="K35">
+        <v>27322000</v>
+      </c>
+      <c r="L35">
+        <v>13484500</v>
+      </c>
+      <c r="M35">
+        <v>11535200</v>
+      </c>
+      <c r="N35" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>97680</v>
+      </c>
+      <c r="E36">
+        <v>178000</v>
+      </c>
+      <c r="F36">
+        <v>300000</v>
+      </c>
+      <c r="G36">
+        <v>481420</v>
+      </c>
+      <c r="H36">
+        <v>892200</v>
+      </c>
+      <c r="I36">
+        <v>1949300</v>
+      </c>
+      <c r="J36">
+        <v>3707340</v>
+      </c>
+      <c r="K36">
+        <v>5460500</v>
+      </c>
+      <c r="L36">
+        <v>1753160</v>
+      </c>
+      <c r="M36">
+        <v>-196140</v>
+      </c>
+      <c r="N36" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>48840</v>
+      </c>
+      <c r="E37">
+        <v>89000</v>
+      </c>
+      <c r="F37">
+        <v>150000</v>
+      </c>
+      <c r="G37">
+        <v>240710</v>
+      </c>
+      <c r="H37">
+        <v>446100</v>
+      </c>
+      <c r="I37">
+        <v>974650</v>
+      </c>
+      <c r="J37">
+        <v>775000</v>
+      </c>
+      <c r="K37">
+        <v>5270500</v>
+      </c>
+      <c r="L37">
+        <v>4495500</v>
+      </c>
+      <c r="M37">
+        <v>3520850</v>
+      </c>
+      <c r="N37" t="s">
         <v>67</v>
       </c>
-      <c r="P22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="O37" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>2200</v>
+      </c>
+      <c r="E38">
+        <v>148000</v>
+      </c>
+      <c r="F38">
+        <v>188000</v>
+      </c>
+      <c r="G38">
+        <v>389140</v>
+      </c>
+      <c r="H38">
+        <v>816200</v>
+      </c>
+      <c r="I38">
+        <v>1543540</v>
+      </c>
+      <c r="J38">
+        <v>10630850</v>
+      </c>
+      <c r="K38">
+        <v>20181000</v>
+      </c>
+      <c r="L38">
+        <v>9550150</v>
+      </c>
+      <c r="M38">
+        <v>8006610</v>
+      </c>
+      <c r="N38" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38" t="s">
         <v>105</v>
+      </c>
+      <c r="P38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>2200</v>
+      </c>
+      <c r="E39">
+        <v>148000</v>
+      </c>
+      <c r="F39">
+        <v>188000</v>
+      </c>
+      <c r="G39">
+        <v>389140</v>
+      </c>
+      <c r="H39">
+        <v>816200</v>
+      </c>
+      <c r="I39">
+        <v>1543540</v>
+      </c>
+      <c r="J39">
+        <v>3208190</v>
+      </c>
+      <c r="K39">
+        <v>4034250</v>
+      </c>
+      <c r="L39">
+        <v>826060</v>
+      </c>
+      <c r="M39">
+        <v>-717480</v>
+      </c>
+      <c r="N39" t="s">
+        <v>69</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>1100</v>
+      </c>
+      <c r="E40">
+        <v>74000</v>
+      </c>
+      <c r="F40">
+        <v>94000</v>
+      </c>
+      <c r="G40">
+        <v>194570</v>
+      </c>
+      <c r="H40">
+        <v>408100</v>
+      </c>
+      <c r="I40">
+        <v>771770</v>
+      </c>
+      <c r="J40">
+        <v>775000</v>
+      </c>
+      <c r="K40">
+        <v>4822500</v>
+      </c>
+      <c r="L40">
+        <v>4047500</v>
+      </c>
+      <c r="M40">
+        <v>3275730</v>
+      </c>
+      <c r="N40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
